--- a/memberi_memberikan_coded.xlsx
+++ b/memberi_memberikan_coded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Primahadi/Documents/research/2021 May - BERI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5218D2E4-48FC-E543-9404-800C2DF62061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2799C-F9AA-F84E-99C1-2884C1E09898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="27160" windowHeight="15900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="27160" windowHeight="15900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memberi" sheetId="1" r:id="rId1"/>
@@ -2965,12 +2965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3040,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>129</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>144</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>146</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>152</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>158</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>160</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>178</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>182</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>184</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>188</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>192</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>198</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>200</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>202</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>218</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>230</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>232</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>238</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>241</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>243</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>245</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>259</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>263</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>265</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>267</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>269</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>275</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>277</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>281</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>287</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>295</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>297</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>299</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>301</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>307</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>309</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>311</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>313</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>323</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>325</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>331</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>333</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>337</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>339</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>341</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>343</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>347</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>359</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>361</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>369</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>371</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>377</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>379</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>383</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>389</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>395</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>397</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>399</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>401</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>403</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>407</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>411</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>413</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>415</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>423</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>428</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>436</v>
       </c>
@@ -7338,7 +7337,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>440</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>442</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>444</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>448</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>460</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>462</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>468</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>470</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>474</v>
       </c>
@@ -7772,7 +7771,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>483</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>485</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>487</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>489</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>491</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>493</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>496</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>498</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>500</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>502</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>504</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>506</v>
       </c>
@@ -7946,7 +7945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>508</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>512</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>514</v>
       </c>
@@ -8011,7 +8010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>516</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>520</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>522</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>528</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>534</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>536</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>540</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>542</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>544</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>549</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>553</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>557</v>
       </c>
@@ -8409,7 +8408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>558</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>568</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>570</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>572</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>574</v>
       </c>
@@ -8594,7 +8593,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>578</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>580</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>586</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>593</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>595</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>599</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>601</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>605</v>
       </c>
@@ -8867,7 +8866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>607</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>611</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>615</v>
       </c>
@@ -8958,7 +8957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>617</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>621</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>625</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>631</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>635</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>642</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>644</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>648</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>650</v>
       </c>
@@ -9274,7 +9273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>652</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>654</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>656</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>658</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>671</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>673</v>
       </c>
@@ -9519,7 +9518,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>677</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>681</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>683</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>685</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>689</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>695</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>699</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>701</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>703</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>705</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>707</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>716</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>718</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>720</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>722</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>726</v>
       </c>
@@ -9979,7 +9978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>728</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>730</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>736</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>738</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>742</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>744</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>746</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>749</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>754</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>758</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>762</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>767</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>769</v>
       </c>
@@ -10397,7 +10396,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>773</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>775</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>777</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>783</v>
       </c>
@@ -10505,7 +10504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>785</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>791</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>793</v>
       </c>
@@ -10691,7 +10690,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>803</v>
       </c>
@@ -10751,7 +10750,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>809</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>811</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>813</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>815</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>817</v>
       </c>
@@ -10845,20 +10844,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J401" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="memberi/vbt"/>
-        <filter val="memberikan/vbt"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="dative"/>
-        <filter val="ditransitive"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
